--- a/data/trans_orig/Q23_tabaco_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>69874</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56841</v>
+        <v>57627</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82706</v>
+        <v>82560</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.417427096023792</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3395688079215696</v>
+        <v>0.3442644670338478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4940809398075967</v>
+        <v>0.4932118828483661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -765,19 +765,19 @@
         <v>69379</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57656</v>
+        <v>58218</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83061</v>
+        <v>82015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4325146833376272</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3594325818342732</v>
+        <v>0.3629357514234802</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5178120675560333</v>
+        <v>0.5112875943133318</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -786,19 +786,19 @@
         <v>139254</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>122810</v>
+        <v>123056</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>158186</v>
+        <v>157760</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4248101401754485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3746456356831012</v>
+        <v>0.3753975531087025</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4825653195482985</v>
+        <v>0.4812655443717824</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>97519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>84687</v>
+        <v>84833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>110552</v>
+        <v>109766</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.582572903976208</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5059190601924034</v>
+        <v>0.5067881171516339</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6604311920784304</v>
+        <v>0.6557355329661521</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -836,19 +836,19 @@
         <v>91029</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77347</v>
+        <v>78393</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102752</v>
+        <v>102190</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5674853166623729</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4821879324439667</v>
+        <v>0.4887124056866683</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6405674181657267</v>
+        <v>0.6370642485765199</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>193</v>
@@ -857,19 +857,19 @@
         <v>188548</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>169616</v>
+        <v>170042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>204992</v>
+        <v>204746</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5751898598245514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5174346804517015</v>
+        <v>0.5187344556282181</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6253543643168986</v>
+        <v>0.6246024468912977</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>105465</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>88736</v>
+        <v>89337</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>122244</v>
+        <v>124429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2895871244868526</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.24365239193923</v>
+        <v>0.2453024152236762</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3356572575673189</v>
+        <v>0.3416573758392536</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -982,19 +982,19 @@
         <v>67817</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54139</v>
+        <v>54637</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82743</v>
+        <v>82674</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2619318379406562</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2091012692775804</v>
+        <v>0.2110256688618994</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3195791511667617</v>
+        <v>0.3193150484932597</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>172</v>
@@ -1003,19 +1003,19 @@
         <v>173282</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>152401</v>
+        <v>152098</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>197742</v>
+        <v>196198</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2780958276319833</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2445833094083859</v>
+        <v>0.2440984266303265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3173506506787606</v>
+        <v>0.3148731502254934</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>258727</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>241948</v>
+        <v>239763</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>275456</v>
+        <v>274855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7104128755131474</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6643427424326811</v>
+        <v>0.6583426241607467</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7563476080607699</v>
+        <v>0.7546975847763239</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>182</v>
@@ -1053,19 +1053,19 @@
         <v>191094</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>176168</v>
+        <v>176237</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>204772</v>
+        <v>204274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7380681620593438</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6804208488332383</v>
+        <v>0.6806849515067398</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7908987307224197</v>
+        <v>0.7889743311381004</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>430</v>
@@ -1074,19 +1074,19 @@
         <v>449821</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>425361</v>
+        <v>426905</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>470702</v>
+        <v>471005</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7219041723680167</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6826493493212394</v>
+        <v>0.6851268497745067</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7554166905916141</v>
+        <v>0.7559015733696737</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>104878</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88737</v>
+        <v>88648</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>124174</v>
+        <v>124420</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2810073185316722</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2377602370542311</v>
+        <v>0.2375231496469335</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3327105069976238</v>
+        <v>0.333368188945204</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -1199,19 +1199,19 @@
         <v>77287</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63364</v>
+        <v>63476</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94370</v>
+        <v>93645</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2603180648630475</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.213424246469534</v>
+        <v>0.2138006079546443</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3178589884743698</v>
+        <v>0.315416009908436</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>177</v>
@@ -1220,19 +1220,19 @@
         <v>182164</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161563</v>
+        <v>159541</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>206907</v>
+        <v>205867</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2718409642034566</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2410982486977466</v>
+        <v>0.2380806583135075</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3087646028175913</v>
+        <v>0.3072128998521335</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>268342</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>249046</v>
+        <v>248800</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>284483</v>
+        <v>284572</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7189926814683278</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6672894930023762</v>
+        <v>0.666631811054796</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7622397629457689</v>
+        <v>0.7624768503530666</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>211</v>
@@ -1270,19 +1270,19 @@
         <v>219606</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>202523</v>
+        <v>203248</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>233529</v>
+        <v>233417</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7396819351369526</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6821410115256296</v>
+        <v>0.6845839900915637</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7865757535304654</v>
+        <v>0.7861993920453556</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>471</v>
@@ -1291,19 +1291,19 @@
         <v>487949</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>463206</v>
+        <v>464246</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>508550</v>
+        <v>510572</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7281590357965434</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6912353971824088</v>
+        <v>0.6927871001478665</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7589017513022531</v>
+        <v>0.7619193416864924</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>110962</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95005</v>
+        <v>93471</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129313</v>
+        <v>128755</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3485559797247623</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2984295690327177</v>
+        <v>0.2936129235534128</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4061980031082441</v>
+        <v>0.40444608908478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -1416,19 +1416,19 @@
         <v>35197</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25111</v>
+        <v>26035</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48497</v>
+        <v>47416</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1856487673840784</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1324512350593263</v>
+        <v>0.1373250909008042</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2558033404384003</v>
+        <v>0.2501026132862019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -1437,19 +1437,19 @@
         <v>146159</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124216</v>
+        <v>123570</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165856</v>
+        <v>166652</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2877505624004286</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2445491115873875</v>
+        <v>0.2432775418469524</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3265290038799261</v>
+        <v>0.3280967653319828</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>207387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>189036</v>
+        <v>189594</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>223344</v>
+        <v>224878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6514440202752377</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5938019968917559</v>
+        <v>0.5955539109152199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7015704309672822</v>
+        <v>0.7063870764465872</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -1487,19 +1487,19 @@
         <v>154391</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141091</v>
+        <v>142172</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>164477</v>
+        <v>163553</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8143512326159216</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7441966595615996</v>
+        <v>0.7498973867137988</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8675487649406738</v>
+        <v>0.8626749090991959</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>340</v>
@@ -1508,19 +1508,19 @@
         <v>361778</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>342081</v>
+        <v>341285</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>383721</v>
+        <v>384367</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7122494375995714</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6734709961200739</v>
+        <v>0.6719032346680173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7554508884126125</v>
+        <v>0.7567224581530474</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>97028</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81363</v>
+        <v>84641</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111538</v>
+        <v>114274</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4271640983785556</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.358199313606016</v>
+        <v>0.3726300617523318</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4910441130895812</v>
+        <v>0.5030877763409926</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1633,19 +1633,19 @@
         <v>7398</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3192</v>
+        <v>2986</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14539</v>
+        <v>14447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1253436383952026</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05408494754834153</v>
+        <v>0.05060214176202583</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.246352428963251</v>
+        <v>0.2447874885286734</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -1654,19 +1654,19 @@
         <v>104426</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>88405</v>
+        <v>88694</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>119754</v>
+        <v>121352</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3649157696718208</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3089296504059558</v>
+        <v>0.3099396929639981</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4184786583746983</v>
+        <v>0.4240616002932059</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>130117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>115607</v>
+        <v>112871</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>145782</v>
+        <v>142504</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5728359016214444</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5089558869104188</v>
+        <v>0.4969122236590074</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6418006863939842</v>
+        <v>0.6273699382476683</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -1704,19 +1704,19 @@
         <v>51621</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44480</v>
+        <v>44572</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>55827</v>
+        <v>56033</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8746563616047974</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7536475710367491</v>
+        <v>0.7552125114713266</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.94591505245166</v>
+        <v>0.9493978582379742</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>183</v>
@@ -1725,19 +1725,19 @@
         <v>181739</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>166411</v>
+        <v>164813</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>197760</v>
+        <v>197471</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6350842303281793</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5815213416253017</v>
+        <v>0.5759383997067941</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6910703495940443</v>
+        <v>0.6900603070360022</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>57899</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47056</v>
+        <v>47313</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69109</v>
+        <v>69635</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4005117553300995</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3255099597239345</v>
+        <v>0.3272848051191501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.478061117227377</v>
+        <v>0.4816978845023912</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3684</v>
+        <v>4561</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04955474411065337</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2036594439686329</v>
+        <v>0.252120564503466</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -1871,19 +1871,19 @@
         <v>58795</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46794</v>
+        <v>46938</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70471</v>
+        <v>70362</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3614760904767177</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2876933609969788</v>
+        <v>0.2885801609544882</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4332589979254721</v>
+        <v>0.4325902328358376</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>86663</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>75453</v>
+        <v>74927</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>97506</v>
+        <v>97249</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5994882446699005</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5219388827726227</v>
+        <v>0.5183021154976085</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.674490040276065</v>
+        <v>0.6727151948808499</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -1921,7 +1921,7 @@
         <v>17195</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14407</v>
+        <v>13530</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>18091</v>
@@ -1930,7 +1930,7 @@
         <v>0.9504452558893466</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7963405560313672</v>
+        <v>0.7478794354965339</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1942,19 +1942,19 @@
         <v>103858</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>92182</v>
+        <v>92291</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>115859</v>
+        <v>115715</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6385239095232823</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5667410020745279</v>
+        <v>0.5674097671641624</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7123066390030209</v>
+        <v>0.7114198390455118</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>62154</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51614</v>
+        <v>52388</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72616</v>
+        <v>73083</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5185727402177639</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4306350825243226</v>
+        <v>0.4370910931287615</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6058657413739772</v>
+        <v>0.6097651642198383</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2067,19 +2067,19 @@
         <v>4044</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1239</v>
+        <v>1277</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8246</v>
+        <v>9135</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2916154327440407</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08931828472613744</v>
+        <v>0.0920949199589198</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5945513783089393</v>
+        <v>0.6586941684757665</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -2088,19 +2088,19 @@
         <v>66198</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54604</v>
+        <v>55706</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>76917</v>
+        <v>78981</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4950338233153636</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4083365098739963</v>
+        <v>0.4165728148734587</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5751935639976051</v>
+        <v>0.5906233158482993</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>57701</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>47239</v>
+        <v>46772</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>68241</v>
+        <v>67467</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4814272597822361</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3941342586260234</v>
+        <v>0.3902348357801614</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5693649174756779</v>
+        <v>0.5629089068712385</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2138,19 +2138,19 @@
         <v>9825</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5623</v>
+        <v>4734</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12630</v>
+        <v>12592</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7083845672559593</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4054486216910607</v>
+        <v>0.3413058315242345</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9106817152738627</v>
+        <v>0.9079050800410802</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>67</v>
@@ -2159,19 +2159,19 @@
         <v>67526</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>56807</v>
+        <v>54743</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>79120</v>
+        <v>78018</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5049661766846364</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.424806436002395</v>
+        <v>0.4093766841517007</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5916634901260038</v>
+        <v>0.5834271851265415</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>608261</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>568445</v>
+        <v>571303</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>647368</v>
+        <v>650273</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3547294652846681</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3315093644701953</v>
+        <v>0.3331761470086834</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3775364533622764</v>
+        <v>0.3792304801441185</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>261</v>
@@ -2284,19 +2284,19 @@
         <v>262018</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>235758</v>
+        <v>236129</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>291036</v>
+        <v>290343</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2628643810424137</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2365197931420601</v>
+        <v>0.2368917359900097</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2919754152445539</v>
+        <v>0.2912809067324123</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>861</v>
@@ -2305,19 +2305,19 @@
         <v>870279</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>821605</v>
+        <v>819530</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>920608</v>
+        <v>919690</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3209586946082496</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3030077557531237</v>
+        <v>0.3022428051126271</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3395202570995963</v>
+        <v>0.3391815946001931</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1106456</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1067349</v>
+        <v>1064444</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1146272</v>
+        <v>1143414</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6452705347153319</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6224635466377236</v>
+        <v>0.6207695198558811</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6684906355298047</v>
+        <v>0.6668238529913163</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>711</v>
@@ -2355,19 +2355,19 @@
         <v>734763</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>705745</v>
+        <v>706438</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>761023</v>
+        <v>760652</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7371356189575863</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7080245847554462</v>
+        <v>0.7087190932675876</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7634802068579399</v>
+        <v>0.7631082640099904</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1793</v>
@@ -2376,19 +2376,19 @@
         <v>1841218</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1790889</v>
+        <v>1791807</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1889892</v>
+        <v>1891967</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6790413053917503</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6604797429004037</v>
+        <v>0.6608184053998069</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6969922442468763</v>
+        <v>0.6977571948873729</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>65455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53585</v>
+        <v>53973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77713</v>
+        <v>78474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4304060277517919</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3523552958306047</v>
+        <v>0.3549012669513316</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5110068388216857</v>
+        <v>0.5160100021361578</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>79</v>
@@ -2744,19 +2744,19 @@
         <v>83254</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70323</v>
+        <v>70155</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94973</v>
+        <v>95736</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5368857167262223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4534963314123314</v>
+        <v>0.4524142087088058</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6124616905086555</v>
+        <v>0.6173796705321841</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>142</v>
@@ -2765,19 +2765,19 @@
         <v>148710</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132659</v>
+        <v>130609</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>166190</v>
+        <v>166367</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4841642096894274</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4319081403206927</v>
+        <v>0.4252316559486478</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5410760229869466</v>
+        <v>0.5416525212575454</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>86623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74365</v>
+        <v>73604</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98493</v>
+        <v>98105</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5695939722482081</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4889931611783142</v>
+        <v>0.4839899978638422</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6476447041693953</v>
+        <v>0.6450987330486684</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -2815,19 +2815,19 @@
         <v>71814</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60095</v>
+        <v>59332</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>84745</v>
+        <v>84913</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4631142832737777</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3875383094913445</v>
+        <v>0.3826203294678157</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5465036685876686</v>
+        <v>0.5475857912911942</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>158</v>
@@ -2836,19 +2836,19 @@
         <v>158437</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>140957</v>
+        <v>140780</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>174488</v>
+        <v>176538</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5158357903105726</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4589239770130535</v>
+        <v>0.4583474787424547</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5680918596793073</v>
+        <v>0.574768344051353</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>103643</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86959</v>
+        <v>87645</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123288</v>
+        <v>120498</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2845324412147845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2387311001410888</v>
+        <v>0.2406148543444731</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3384664324618382</v>
+        <v>0.3308069520800204</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -2961,19 +2961,19 @@
         <v>80812</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65582</v>
+        <v>66774</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98224</v>
+        <v>97816</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2500435810521337</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.202920585538142</v>
+        <v>0.2066100300479063</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3039210221239932</v>
+        <v>0.302658236912478</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>175</v>
@@ -2982,19 +2982,19 @@
         <v>184454</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>160596</v>
+        <v>160053</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>204729</v>
+        <v>207317</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2683181359885484</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2336123333988203</v>
+        <v>0.2328222508470412</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2978116869004611</v>
+        <v>0.3015756354841665</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>260613</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>240968</v>
+        <v>243758</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>277297</v>
+        <v>276611</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7154675587852155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6615335675381618</v>
+        <v>0.6691930479199797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7612688998589111</v>
+        <v>0.7593851456555268</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>228</v>
@@ -3032,19 +3032,19 @@
         <v>242378</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>224966</v>
+        <v>225374</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>257608</v>
+        <v>256416</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7499564189478662</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6960789778760068</v>
+        <v>0.6973417630875219</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7970794144618579</v>
+        <v>0.7933899699520937</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>484</v>
@@ -3053,19 +3053,19 @@
         <v>502992</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>482717</v>
+        <v>480129</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>526850</v>
+        <v>527393</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7316818640114516</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.702188313099539</v>
+        <v>0.6984243645158336</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7663876666011797</v>
+        <v>0.7671777491529589</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>129363</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111753</v>
+        <v>110362</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>152546</v>
+        <v>150550</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3124906629150589</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.269953108441123</v>
+        <v>0.2665918011870027</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.368492120346892</v>
+        <v>0.3636708828865142</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -3178,19 +3178,19 @@
         <v>96319</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79766</v>
+        <v>79893</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115217</v>
+        <v>112909</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2687020247979495</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2225233595986573</v>
+        <v>0.222880154141615</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3214234589277152</v>
+        <v>0.3149844023499857</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>216</v>
@@ -3199,19 +3199,19 @@
         <v>225681</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>201383</v>
+        <v>198988</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>252745</v>
+        <v>251155</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2921698802935987</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2607129409541931</v>
+        <v>0.2576127115484694</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3272068349536943</v>
+        <v>0.3251480706491657</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>284610</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>261427</v>
+        <v>263423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>302220</v>
+        <v>303611</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6875093370849411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.631507879653108</v>
+        <v>0.6363291171134858</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.730046891558877</v>
+        <v>0.7334081988129973</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -3249,19 +3249,19 @@
         <v>262140</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243242</v>
+        <v>245550</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>278693</v>
+        <v>278566</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7312979752020504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6785765410722847</v>
+        <v>0.6850155976500144</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7774766404013428</v>
+        <v>0.7771198458583852</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>518</v>
@@ -3270,19 +3270,19 @@
         <v>546751</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>519687</v>
+        <v>521277</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>571049</v>
+        <v>573444</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7078301197064013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6727931650463057</v>
+        <v>0.6748519293508344</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7392870590458069</v>
+        <v>0.7423872884515306</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>158536</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>137732</v>
+        <v>138073</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>179175</v>
+        <v>181063</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3582299542611217</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3112190481792431</v>
+        <v>0.3119911643518535</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4048658086627566</v>
+        <v>0.4091312281504751</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -3395,19 +3395,19 @@
         <v>83980</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69420</v>
+        <v>69014</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102765</v>
+        <v>101905</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2597774031427371</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2147397365356799</v>
+        <v>0.2134841666304985</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3178883084053954</v>
+        <v>0.3152272218783763</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>212</v>
@@ -3416,19 +3416,19 @@
         <v>242516</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>215603</v>
+        <v>213014</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>270083</v>
+        <v>269795</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.316670776252432</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2815288613254002</v>
+        <v>0.278147689477041</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.352666615859511</v>
+        <v>0.3522910802869506</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>284019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>263380</v>
+        <v>261492</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>304823</v>
+        <v>304482</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6417700457388783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5951341913372435</v>
+        <v>0.5908687718495248</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6887809518207569</v>
+        <v>0.6880088356481465</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>211</v>
@@ -3466,19 +3466,19 @@
         <v>239295</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>220510</v>
+        <v>221370</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>253855</v>
+        <v>254261</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.740222596857263</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6821116915946045</v>
+        <v>0.684772778121624</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.78526026346432</v>
+        <v>0.7865158333695015</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>459</v>
@@ -3487,19 +3487,19 @@
         <v>523314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>495747</v>
+        <v>496035</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>550227</v>
+        <v>552816</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.683329223747568</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.647333384140489</v>
+        <v>0.6477089197130494</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7184711386745998</v>
+        <v>0.7218523105229591</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>113549</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95743</v>
+        <v>94810</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>130628</v>
+        <v>129701</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3918918304875148</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3304357604981862</v>
+        <v>0.3272166996088193</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4508360048429105</v>
+        <v>0.4476351059872931</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3612,19 +3612,19 @@
         <v>14676</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8792</v>
+        <v>9156</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23824</v>
+        <v>23974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1250447265198244</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07491191577865794</v>
+        <v>0.07801240683560966</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2029858310295725</v>
+        <v>0.2042664288695238</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>119</v>
@@ -3633,19 +3633,19 @@
         <v>128226</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>109335</v>
+        <v>108838</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>148632</v>
+        <v>148344</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3149630614944554</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2685609005685034</v>
+        <v>0.2673400781217649</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3650887561157661</v>
+        <v>0.3643793844662564</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>176198</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>159119</v>
+        <v>160046</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194004</v>
+        <v>194937</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6081081695124851</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5491639951570895</v>
+        <v>0.5523648940127071</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6695642395018138</v>
+        <v>0.6727833003911807</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -3683,19 +3683,19 @@
         <v>102690</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>93542</v>
+        <v>93392</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108574</v>
+        <v>108210</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8749552734801755</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7970141689704274</v>
+        <v>0.7957335711304762</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9250880842213419</v>
+        <v>0.9219875931643904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>249</v>
@@ -3704,19 +3704,19 @@
         <v>278887</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>258481</v>
+        <v>258769</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>297778</v>
+        <v>298275</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6850369385055446</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6349112438842338</v>
+        <v>0.6356206155337439</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7314390994314965</v>
+        <v>0.732659921878235</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>85962</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70767</v>
+        <v>70788</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>101318</v>
+        <v>101183</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4056306010907633</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3339289231746551</v>
+        <v>0.3340285947687953</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.478092124750904</v>
+        <v>0.477456605648462</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -3829,19 +3829,19 @@
         <v>4619</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1645</v>
+        <v>1706</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11303</v>
+        <v>10790</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1607577096630132</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05725787082517098</v>
+        <v>0.0593865155710403</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3934070412595302</v>
+        <v>0.3755306195326926</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -3850,19 +3850,19 @@
         <v>90581</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75300</v>
+        <v>75304</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106196</v>
+        <v>107867</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3763951534913235</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3128992533265816</v>
+        <v>0.3129156133745736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4412826386686163</v>
+        <v>0.4482282880522263</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>125959</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110603</v>
+        <v>110738</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141154</v>
+        <v>141133</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5943693989092367</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.521907875249096</v>
+        <v>0.5225433943515381</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6660710768253449</v>
+        <v>0.6659714052312048</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -3900,19 +3900,19 @@
         <v>24113</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17429</v>
+        <v>17942</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27087</v>
+        <v>27026</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8392422903369868</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6065929587404691</v>
+        <v>0.6244693804673075</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.942742129174829</v>
+        <v>0.9406134844289598</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>134</v>
@@ -3921,19 +3921,19 @@
         <v>150072</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>134457</v>
+        <v>132786</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>165353</v>
+        <v>165349</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6236048465086765</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5587173613313836</v>
+        <v>0.5517717119477735</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6871007466734183</v>
+        <v>0.6870843866254261</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>73630</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59461</v>
+        <v>60973</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87282</v>
+        <v>87809</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4565169678749106</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3686682211509018</v>
+        <v>0.3780409465584553</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5411565853831747</v>
+        <v>0.5444287120822933</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -4059,19 +4059,19 @@
         <v>73630</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60443</v>
+        <v>61050</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>87280</v>
+        <v>86987</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4287723874331594</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3519803939809364</v>
+        <v>0.3555168533179809</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5082584494406462</v>
+        <v>0.5065568434579014</v>
       </c>
     </row>
     <row r="23">
@@ -4088,19 +4088,19 @@
         <v>87657</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74005</v>
+        <v>73478</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>101826</v>
+        <v>100314</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5434830321250894</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4588434146168254</v>
+        <v>0.4555712879177066</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6313317788490983</v>
+        <v>0.6219590534415447</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -4122,19 +4122,19 @@
         <v>98093</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>84443</v>
+        <v>84736</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>111280</v>
+        <v>110673</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5712276125668406</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4917415505593538</v>
+        <v>0.4934431565420987</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6480196060190636</v>
+        <v>0.6444831466820191</v>
       </c>
     </row>
     <row r="24">
@@ -4226,19 +4226,19 @@
         <v>730139</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>688951</v>
+        <v>688131</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>780981</v>
+        <v>776871</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3586464278700456</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3384149496835183</v>
+        <v>0.3380118576919929</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3836200867741154</v>
+        <v>0.3816015734478762</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>331</v>
@@ -4247,19 +4247,19 @@
         <v>363659</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>331788</v>
+        <v>330483</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>397581</v>
+        <v>398087</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2762258851911721</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2520175881748818</v>
+        <v>0.2510263389004352</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3019926408243084</v>
+        <v>0.302376772754287</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1017</v>
@@ -4268,19 +4268,19 @@
         <v>1093797</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1042782</v>
+        <v>1036879</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1156548</v>
+        <v>1152042</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3262783850955205</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3110605712213123</v>
+        <v>0.3092996203072529</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3449969312969512</v>
+        <v>0.3436525543666667</v>
       </c>
     </row>
     <row r="26">
@@ -4297,19 +4297,19 @@
         <v>1305679</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1254837</v>
+        <v>1258947</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1346867</v>
+        <v>1347687</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6413535721299544</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6163799132258848</v>
+        <v>0.6183984265521237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6615850503164817</v>
+        <v>0.661988142308007</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>878</v>
@@ -4318,19 +4318,19 @@
         <v>952867</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>918945</v>
+        <v>918439</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>984738</v>
+        <v>986043</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7237741148088279</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.698007359175691</v>
+        <v>0.6976232272457131</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.747982411825118</v>
+        <v>0.7489736610995649</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2089</v>
@@ -4339,19 +4339,19 @@
         <v>2258547</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2195796</v>
+        <v>2200302</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2309562</v>
+        <v>2315465</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6737216149044795</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6550030687030488</v>
+        <v>0.6563474456333334</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6889394287786875</v>
+        <v>0.6907003796927471</v>
       </c>
     </row>
     <row r="27">
@@ -4686,19 +4686,19 @@
         <v>61434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50065</v>
+        <v>48284</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74093</v>
+        <v>74214</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4137040194102397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3371397708952217</v>
+        <v>0.3251500820587494</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4989522299339293</v>
+        <v>0.4997635575881678</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -4707,19 +4707,19 @@
         <v>59001</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48603</v>
+        <v>47279</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70008</v>
+        <v>70344</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4854857798626079</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3999285978818147</v>
+        <v>0.3890308171273777</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5760560847771485</v>
+        <v>0.578827855177241</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -4728,19 +4728,19 @@
         <v>120435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>103942</v>
+        <v>103603</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137961</v>
+        <v>136915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4460102935716134</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3849297307609882</v>
+        <v>0.3836759448858509</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5109150841692633</v>
+        <v>0.5070405649771917</v>
       </c>
     </row>
     <row r="5">
@@ -4757,19 +4757,19 @@
         <v>87064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74405</v>
+        <v>74284</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98433</v>
+        <v>100214</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5862959805897603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5010477700660708</v>
+        <v>0.5002364424118323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6628602291047784</v>
+        <v>0.6748499179412508</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -4778,19 +4778,19 @@
         <v>62528</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51521</v>
+        <v>51185</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72926</v>
+        <v>74250</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.514514220137392</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4239439152228512</v>
+        <v>0.421172144822759</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6000714021181849</v>
+        <v>0.6109691828726225</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>146</v>
@@ -4799,19 +4799,19 @@
         <v>149593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>132067</v>
+        <v>133113</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>166086</v>
+        <v>166425</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5539897064283866</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4890849158307365</v>
+        <v>0.492959435022808</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6150702692390118</v>
+        <v>0.616324055114149</v>
       </c>
     </row>
     <row r="6">
@@ -4903,19 +4903,19 @@
         <v>94775</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80391</v>
+        <v>79905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112922</v>
+        <v>111670</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3121234925375972</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2647507036179553</v>
+        <v>0.2631505814070942</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3718852138114003</v>
+        <v>0.3677636528400227</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -4924,19 +4924,19 @@
         <v>83712</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69674</v>
+        <v>68960</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>99317</v>
+        <v>98421</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3186743502182904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2652373905841935</v>
+        <v>0.2625193243174433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3780810174137618</v>
+        <v>0.3746703862569862</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>175</v>
@@ -4945,19 +4945,19 @@
         <v>178487</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>156967</v>
+        <v>157015</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>200511</v>
+        <v>200747</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3151620276600958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2771643373696915</v>
+        <v>0.2772487921689515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.35405104842091</v>
+        <v>0.3544690116177711</v>
       </c>
     </row>
     <row r="8">
@@ -4974,19 +4974,19 @@
         <v>208872</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>190725</v>
+        <v>191977</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>223256</v>
+        <v>223742</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6878765074624028</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6281147861885997</v>
+        <v>0.6322363471599771</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7352492963820446</v>
+        <v>0.7368494185929054</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>184</v>
@@ -4995,19 +4995,19 @@
         <v>178975</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>163370</v>
+        <v>164266</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>193013</v>
+        <v>193727</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6813256497817096</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6219189825862382</v>
+        <v>0.6253296137430138</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7347626094158065</v>
+        <v>0.7374806756825569</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>383</v>
@@ -5016,19 +5016,19 @@
         <v>387846</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>365822</v>
+        <v>365586</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>409366</v>
+        <v>409318</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6848379723399042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6459489515790897</v>
+        <v>0.6455309883822289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7228356626303085</v>
+        <v>0.7227512078310484</v>
       </c>
     </row>
     <row r="9">
@@ -5120,19 +5120,19 @@
         <v>102905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86176</v>
+        <v>87548</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119274</v>
+        <v>120832</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3060387477959451</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.256288110812098</v>
+        <v>0.260367805074164</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3547208938648512</v>
+        <v>0.3593535242085502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -5141,19 +5141,19 @@
         <v>78722</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63326</v>
+        <v>62639</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94049</v>
+        <v>94570</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2599636074341238</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2091194849476287</v>
+        <v>0.2068520401022458</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3105748297011718</v>
+        <v>0.3122979018778526</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>175</v>
@@ -5162,19 +5162,19 @@
         <v>181627</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161196</v>
+        <v>159938</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>204636</v>
+        <v>207756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2842061624761178</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2522360066975599</v>
+        <v>0.2502667796286095</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3202092906447879</v>
+        <v>0.3250922630745897</v>
       </c>
     </row>
     <row r="11">
@@ -5191,19 +5191,19 @@
         <v>233343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>216974</v>
+        <v>215416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>250072</v>
+        <v>248700</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6939612522040549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6452791061351487</v>
+        <v>0.6406464757914498</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7437118891879019</v>
+        <v>0.739632194925836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -5212,19 +5212,19 @@
         <v>224099</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>208772</v>
+        <v>208251</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>239495</v>
+        <v>240182</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7400363925658763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6894251702988281</v>
+        <v>0.6877020981221474</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7908805150523713</v>
+        <v>0.7931479598977541</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>448</v>
@@ -5233,19 +5233,19 @@
         <v>457442</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>434433</v>
+        <v>431313</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>477873</v>
+        <v>479131</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7157938375238821</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6797907093552116</v>
+        <v>0.6749077369254103</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7477639933024397</v>
+        <v>0.7497332203713899</v>
       </c>
     </row>
     <row r="12">
@@ -5337,19 +5337,19 @@
         <v>135130</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114480</v>
+        <v>117186</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>154374</v>
+        <v>155410</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3506496429350708</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2970631785455184</v>
+        <v>0.3040858027576087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4005855533055343</v>
+        <v>0.4032729737531773</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -5358,19 +5358,19 @@
         <v>60755</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47317</v>
+        <v>47598</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76221</v>
+        <v>76001</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.192832451881633</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1501794492317438</v>
+        <v>0.1510726990009132</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2419189656950023</v>
+        <v>0.2412213867746716</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>179</v>
@@ -5379,19 +5379,19 @@
         <v>195885</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>173267</v>
+        <v>170810</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>222028</v>
+        <v>221062</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2796613131592406</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2473690834249371</v>
+        <v>0.2438617682025628</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3169845342944502</v>
+        <v>0.3156055984816741</v>
       </c>
     </row>
     <row r="14">
@@ -5408,19 +5408,19 @@
         <v>250241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>230997</v>
+        <v>229961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>270891</v>
+        <v>268185</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6493503570649293</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5994144466944656</v>
+        <v>0.5967270262468226</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7029368214544816</v>
+        <v>0.6959141972423913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>232</v>
@@ -5429,19 +5429,19 @@
         <v>254312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>238846</v>
+        <v>239066</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>267750</v>
+        <v>267469</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.807167548118367</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7580810343049977</v>
+        <v>0.7587786132253285</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8498205507682562</v>
+        <v>0.8489273009990868</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>454</v>
@@ -5450,19 +5450,19 @@
         <v>504553</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>478410</v>
+        <v>479376</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>527171</v>
+        <v>529628</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7203386868407594</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6830154657055501</v>
+        <v>0.6843944015183258</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7526309165750629</v>
+        <v>0.756138231797437</v>
       </c>
     </row>
     <row r="15">
@@ -5554,19 +5554,19 @@
         <v>109329</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92517</v>
+        <v>93168</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>125215</v>
+        <v>127418</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3905096292558341</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3304605905225984</v>
+        <v>0.332784359461448</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4472530161446213</v>
+        <v>0.4551242874662935</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -5575,19 +5575,19 @@
         <v>36992</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26008</v>
+        <v>26247</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49691</v>
+        <v>52243</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2116284382169879</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1487895723991661</v>
+        <v>0.1501528136839847</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2842731627362319</v>
+        <v>0.2988768894671692</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>127</v>
@@ -5596,19 +5596,19 @@
         <v>146321</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127282</v>
+        <v>122943</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>168296</v>
+        <v>167279</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3217524352747659</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2798874376372002</v>
+        <v>0.2703465119810293</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3700756879338085</v>
+        <v>0.3678390673375856</v>
       </c>
     </row>
     <row r="17">
@@ -5625,19 +5625,19 @@
         <v>170635</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154749</v>
+        <v>152546</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187447</v>
+        <v>186796</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6094903707441659</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5527469838553787</v>
+        <v>0.5448757125337066</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6695394094774015</v>
+        <v>0.667215640538552</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -5646,19 +5646,19 @@
         <v>137807</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>125108</v>
+        <v>122556</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>148791</v>
+        <v>148552</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.788371561783012</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7157268372637681</v>
+        <v>0.7011231105328308</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8512104276008339</v>
+        <v>0.8498471863160153</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>270</v>
@@ -5667,19 +5667,19 @@
         <v>308441</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>286466</v>
+        <v>287483</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>327480</v>
+        <v>331819</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6782475647252342</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6299243120661913</v>
+        <v>0.6321609326624144</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7201125623627999</v>
+        <v>0.7296534880189706</v>
       </c>
     </row>
     <row r="18">
@@ -5771,19 +5771,19 @@
         <v>78781</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65050</v>
+        <v>64405</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>92288</v>
+        <v>92184</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4269016157566838</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3524922799613882</v>
+        <v>0.3489990183215857</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5000894333894227</v>
+        <v>0.4995304559861107</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5792,19 +5792,19 @@
         <v>4135</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9277</v>
+        <v>9379</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07312462511558947</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01859905838078603</v>
+        <v>0.01839153423411072</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1640379519485584</v>
+        <v>0.1658462167524399</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -5813,19 +5813,19 @@
         <v>82917</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69778</v>
+        <v>66420</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>97684</v>
+        <v>98075</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3439178848172203</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2894198008850747</v>
+        <v>0.275492161963916</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4051670948078104</v>
+        <v>0.4067905480655237</v>
       </c>
     </row>
     <row r="20">
@@ -5842,19 +5842,19 @@
         <v>105761</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92254</v>
+        <v>92358</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>119492</v>
+        <v>120137</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5730983842433162</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4999105666105774</v>
+        <v>0.5004695440138893</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6475077200386119</v>
+        <v>0.6510009816784144</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>48</v>
@@ -5863,19 +5863,19 @@
         <v>52417</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47275</v>
+        <v>47173</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55500</v>
+        <v>55512</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9268753748844105</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8359620480514428</v>
+        <v>0.8341537832475604</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.981400941619214</v>
+        <v>0.9816084657658893</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>149</v>
@@ -5884,19 +5884,19 @@
         <v>158178</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>143411</v>
+        <v>143020</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>171317</v>
+        <v>174675</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6560821151827797</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5948329051921895</v>
+        <v>0.5932094519344765</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7105801991149253</v>
+        <v>0.7245078380360843</v>
       </c>
     </row>
     <row r="21">
@@ -5988,19 +5988,19 @@
         <v>57787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47637</v>
+        <v>47376</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68329</v>
+        <v>67545</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4425762095782527</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3648432750366141</v>
+        <v>0.3628418418240882</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.523319127315647</v>
+        <v>0.517316044783419</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -6022,19 +6022,19 @@
         <v>57787</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45461</v>
+        <v>46741</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68659</v>
+        <v>69119</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4080575374257744</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3210225089933588</v>
+        <v>0.3300592526616378</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.484833384007013</v>
+        <v>0.488079290619452</v>
       </c>
     </row>
     <row r="23">
@@ -6051,19 +6051,19 @@
         <v>72782</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>62240</v>
+        <v>63024</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>82932</v>
+        <v>83193</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5574237904217473</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4766808726843529</v>
+        <v>0.482683955216581</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6351567249633856</v>
+        <v>0.6371581581759118</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -6085,19 +6085,19 @@
         <v>83827</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>72955</v>
+        <v>72495</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>96153</v>
+        <v>94873</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5919424625742256</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.515166615992987</v>
+        <v>0.511920709380548</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6789774910066413</v>
+        <v>0.6699407473383622</v>
       </c>
     </row>
     <row r="24">
@@ -6189,19 +6189,19 @@
         <v>640141</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>598469</v>
+        <v>595616</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>685387</v>
+        <v>677675</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3618991790297297</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3383398466271505</v>
+        <v>0.3367269282517348</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3874787181217099</v>
+        <v>0.3831185004547458</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>316</v>
@@ -6210,19 +6210,19 @@
         <v>323318</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>289582</v>
+        <v>291002</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>352772</v>
+        <v>352543</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.259797178305558</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2326891972265206</v>
+        <v>0.2338306594577582</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.28346476470259</v>
+        <v>0.2832809334534369</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>921</v>
@@ -6231,19 +6231,19 @@
         <v>963459</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>913039</v>
+        <v>908196</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1015051</v>
+        <v>1018153</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3197313552168493</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3029991456309706</v>
+        <v>0.301391858180751</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3368526354897558</v>
+        <v>0.337882030448799</v>
       </c>
     </row>
     <row r="26">
@@ -6260,19 +6260,19 @@
         <v>1128698</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1083452</v>
+        <v>1091164</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1170370</v>
+        <v>1173223</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6381008209702703</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.61252128187829</v>
+        <v>0.6168814995452543</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6616601533728496</v>
+        <v>0.6632730717482653</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>880</v>
@@ -6281,19 +6281,19 @@
         <v>921182</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>891728</v>
+        <v>891957</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>954918</v>
+        <v>953498</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.740202821694442</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.71653523529741</v>
+        <v>0.716719066546563</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7673108027734794</v>
+        <v>0.7661693405422418</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1943</v>
@@ -6302,19 +6302,19 @@
         <v>2049880</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1998288</v>
+        <v>1995186</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2100300</v>
+        <v>2105143</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6802686447831507</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6631473645102441</v>
+        <v>0.6621179695512009</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6970008543690294</v>
+        <v>0.698608141819249</v>
       </c>
     </row>
     <row r="27">
@@ -6649,19 +6649,19 @@
         <v>35492</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21138</v>
+        <v>22423</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52448</v>
+        <v>52694</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3629990709936449</v>
+        <v>0.362999070993645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2161931383514043</v>
+        <v>0.2293300690991527</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5364194852512498</v>
+        <v>0.5389380664008562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -6670,19 +6670,19 @@
         <v>26889</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15286</v>
+        <v>16055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40054</v>
+        <v>40808</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3085222283379722</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1753890600583555</v>
+        <v>0.1842160967614871</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4595664378960942</v>
+        <v>0.4682249128683026</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -6691,19 +6691,19 @@
         <v>62381</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44467</v>
+        <v>43479</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81359</v>
+        <v>82150</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3373247310294826</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2404562806219364</v>
+        <v>0.2351125572945184</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4399447062467379</v>
+        <v>0.4442256519556391</v>
       </c>
     </row>
     <row r="5">
@@ -6720,19 +6720,19 @@
         <v>62282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45326</v>
+        <v>45080</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76636</v>
+        <v>75351</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.637000929006355</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.46358051474875</v>
+        <v>0.4610619335991435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7838068616485955</v>
+        <v>0.7706699309008473</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -6741,19 +6741,19 @@
         <v>60266</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47101</v>
+        <v>46347</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71869</v>
+        <v>71100</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6914777716620276</v>
+        <v>0.6914777716620278</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5404335621039056</v>
+        <v>0.5317750871316974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8246109399416447</v>
+        <v>0.8157839032385129</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>60</v>
@@ -6762,19 +6762,19 @@
         <v>122548</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103570</v>
+        <v>102779</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>140462</v>
+        <v>141450</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6626752689705173</v>
+        <v>0.6626752689705172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5600552937532619</v>
+        <v>0.5557743480443607</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7595437193780636</v>
+        <v>0.7648874427054816</v>
       </c>
     </row>
     <row r="6">
@@ -6866,19 +6866,19 @@
         <v>53840</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39031</v>
+        <v>40095</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68667</v>
+        <v>69427</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2873745679512928</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2083335814731351</v>
+        <v>0.2140117883250277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3665194668281652</v>
+        <v>0.3705727878619263</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -6887,19 +6887,19 @@
         <v>38558</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28842</v>
+        <v>28587</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50492</v>
+        <v>50909</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2470003843649117</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1847599663255946</v>
+        <v>0.183124029121033</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3234464794136497</v>
+        <v>0.326118342530144</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -6908,19 +6908,19 @@
         <v>92398</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73716</v>
+        <v>74942</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112229</v>
+        <v>112401</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2690238637070675</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2146283870542075</v>
+        <v>0.2181983952050476</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3267630213523275</v>
+        <v>0.3272635566910024</v>
       </c>
     </row>
     <row r="8">
@@ -6937,19 +6937,19 @@
         <v>133510</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>118683</v>
+        <v>117923</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148319</v>
+        <v>147255</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7126254320487072</v>
+        <v>0.7126254320487073</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6334805331718348</v>
+        <v>0.6294272121380737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7916664185268648</v>
+        <v>0.7859882116749723</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>107</v>
@@ -6958,19 +6958,19 @@
         <v>117549</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>105615</v>
+        <v>105198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>127265</v>
+        <v>127520</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7529996156350881</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6765535205863503</v>
+        <v>0.6738816574698561</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8152400336744052</v>
+        <v>0.8168759708789671</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>191</v>
@@ -6979,19 +6979,19 @@
         <v>251059</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>231228</v>
+        <v>231056</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>269741</v>
+        <v>268515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7309761362929326</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6732369786476726</v>
+        <v>0.6727364433089977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7853716129457924</v>
+        <v>0.7818016047949525</v>
       </c>
     </row>
     <row r="9">
@@ -7083,19 +7083,19 @@
         <v>64742</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51370</v>
+        <v>51396</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79234</v>
+        <v>79034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3054328578191649</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2423466519092125</v>
+        <v>0.2424713829027809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3738003559440092</v>
+        <v>0.3728583937184119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -7104,19 +7104,19 @@
         <v>42273</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33124</v>
+        <v>32961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52932</v>
+        <v>52955</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2105807655925583</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1650047515451629</v>
+        <v>0.1641948026176006</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2636793077998722</v>
+        <v>0.263792387431322</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -7125,19 +7125,19 @@
         <v>107015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>89901</v>
+        <v>90858</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123244</v>
+        <v>127364</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2592965148161672</v>
+        <v>0.2592965148161673</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2178302586704157</v>
+        <v>0.2201496564495112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2986195327080748</v>
+        <v>0.3086016404660716</v>
       </c>
     </row>
     <row r="11">
@@ -7154,19 +7154,19 @@
         <v>147226</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>132734</v>
+        <v>132934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160598</v>
+        <v>160572</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.694567142180835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6261996440559907</v>
+        <v>0.627141606281588</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7576533480907873</v>
+        <v>0.7575286170972189</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>211</v>
@@ -7175,19 +7175,19 @@
         <v>158472</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>147813</v>
+        <v>147790</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167621</v>
+        <v>167784</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7894192344074417</v>
+        <v>0.7894192344074418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7363206922001275</v>
+        <v>0.7362076125686779</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.834995248454837</v>
+        <v>0.8358051973823994</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>338</v>
@@ -7196,19 +7196,19 @@
         <v>305697</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>289468</v>
+        <v>285348</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>322811</v>
+        <v>321854</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7407034851838328</v>
+        <v>0.7407034851838329</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7013804672919263</v>
+        <v>0.6913983595339285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7821697413295845</v>
+        <v>0.7798503435504888</v>
       </c>
     </row>
     <row r="12">
@@ -7300,19 +7300,19 @@
         <v>87722</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71971</v>
+        <v>72498</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104409</v>
+        <v>105347</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2841320419395091</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2331160166197009</v>
+        <v>0.2348222583696798</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3381821528388096</v>
+        <v>0.3412200984443443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -7321,19 +7321,19 @@
         <v>57851</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46799</v>
+        <v>47303</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69028</v>
+        <v>67887</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2197819615071632</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1777955322759033</v>
+        <v>0.1797077715246332</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2622456358488987</v>
+        <v>0.2579113157862559</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>171</v>
@@ -7342,19 +7342,19 @@
         <v>145573</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>126551</v>
+        <v>124635</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165711</v>
+        <v>166948</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2545174025555736</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2212606490094507</v>
+        <v>0.2179107274400043</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2897272011037179</v>
+        <v>0.2918887874433447</v>
       </c>
     </row>
     <row r="14">
@@ -7371,19 +7371,19 @@
         <v>221013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>204326</v>
+        <v>203388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>236764</v>
+        <v>236237</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.715867958060491</v>
+        <v>0.7158679580604911</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6618178471611903</v>
+        <v>0.6587799015556559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7668839833802991</v>
+        <v>0.7651777416303203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>320</v>
@@ -7392,19 +7392,19 @@
         <v>205369</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>194192</v>
+        <v>195333</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>216421</v>
+        <v>215917</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7802180384928367</v>
+        <v>0.7802180384928368</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7377543641511012</v>
+        <v>0.742088684213744</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8222044677240961</v>
+        <v>0.8202922284753668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>522</v>
@@ -7413,19 +7413,19 @@
         <v>426383</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>406245</v>
+        <v>405008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>445405</v>
+        <v>447321</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7454825974444265</v>
+        <v>0.7454825974444264</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.710272798896282</v>
+        <v>0.7081112125566549</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7787393509905489</v>
+        <v>0.7820892725599957</v>
       </c>
     </row>
     <row r="15">
@@ -7517,19 +7517,19 @@
         <v>124230</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>106933</v>
+        <v>107679</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140696</v>
+        <v>140527</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3533239197024425</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3041312011778458</v>
+        <v>0.3062511750501189</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4001568801906752</v>
+        <v>0.3996749800464111</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -7538,19 +7538,19 @@
         <v>55521</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46053</v>
+        <v>46723</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66979</v>
+        <v>67207</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2475938273163101</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2053696769280628</v>
+        <v>0.2083594283268125</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2986888481470393</v>
+        <v>0.2997073243817261</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>224</v>
@@ -7559,19 +7559,19 @@
         <v>179751</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>161542</v>
+        <v>159891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>201777</v>
+        <v>201743</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3121511321656574</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2805301974163164</v>
+        <v>0.2776624339624513</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.350400351180277</v>
+        <v>0.3503421015747399</v>
       </c>
     </row>
     <row r="17">
@@ -7588,19 +7588,19 @@
         <v>227373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>210907</v>
+        <v>211076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>244670</v>
+        <v>243924</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6466760802975575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5998431198093248</v>
+        <v>0.6003250199535889</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6958687988221542</v>
+        <v>0.6937488249498812</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>273</v>
@@ -7609,19 +7609,19 @@
         <v>168721</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>157263</v>
+        <v>157035</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>178189</v>
+        <v>177519</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7524061726836899</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7013111518529604</v>
+        <v>0.7002926756182738</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7946303230719372</v>
+        <v>0.7916405716731875</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>515</v>
@@ -7630,19 +7630,19 @@
         <v>396095</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>374069</v>
+        <v>374103</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>414304</v>
+        <v>415955</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6878488678343426</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.649599648819723</v>
+        <v>0.6496578984252601</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7194698025836835</v>
+        <v>0.7223375660375487</v>
       </c>
     </row>
     <row r="18">
@@ -7734,19 +7734,19 @@
         <v>90993</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>78116</v>
+        <v>77111</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>104150</v>
+        <v>104139</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3755855171474087</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3224344009783115</v>
+        <v>0.3182847322136856</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4298921027276031</v>
+        <v>0.4298485739351972</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -7755,19 +7755,19 @@
         <v>23216</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17453</v>
+        <v>17654</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29900</v>
+        <v>30849</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2325949123755381</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.174855400976725</v>
+        <v>0.176870242879974</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2995561652423632</v>
+        <v>0.3090632660460332</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>167</v>
@@ -7776,19 +7776,19 @@
         <v>114209</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>100788</v>
+        <v>98576</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128997</v>
+        <v>128043</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3338633253477773</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2946316222934592</v>
+        <v>0.2881641811267757</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3770949754383677</v>
+        <v>0.3743055034360954</v>
       </c>
     </row>
     <row r="20">
@@ -7805,19 +7805,19 @@
         <v>151276</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>138119</v>
+        <v>138130</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>164153</v>
+        <v>165158</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6244144828525912</v>
+        <v>0.6244144828525913</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5701078972723969</v>
+        <v>0.5701514260648036</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6775655990216886</v>
+        <v>0.6817152677863149</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>137</v>
@@ -7826,19 +7826,19 @@
         <v>76598</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69914</v>
+        <v>68965</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>82361</v>
+        <v>82160</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7674050876244618</v>
+        <v>0.7674050876244619</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7004438347576367</v>
+        <v>0.6909367339539675</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8251445990232752</v>
+        <v>0.8231297571200261</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>344</v>
@@ -7847,19 +7847,19 @@
         <v>227873</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>213085</v>
+        <v>214039</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>241294</v>
+        <v>243506</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6661366746522227</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6229050245616322</v>
+        <v>0.6256944965639046</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7053683777065409</v>
+        <v>0.7118358188732243</v>
       </c>
     </row>
     <row r="21">
@@ -7951,19 +7951,19 @@
         <v>61987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52435</v>
+        <v>51476</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72076</v>
+        <v>72821</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4223829494976031</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3572944608692811</v>
+        <v>0.3507628392225346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4911295974530863</v>
+        <v>0.4962073355459851</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -7972,19 +7972,19 @@
         <v>3554</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1518</v>
+        <v>1472</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7106</v>
+        <v>6742</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1442724220579724</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06163541247485426</v>
+        <v>0.05975021428053948</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.288509300245938</v>
+        <v>0.2737400059506919</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>97</v>
@@ -7993,19 +7993,19 @@
         <v>65540</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>55494</v>
+        <v>56085</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>76170</v>
+        <v>76357</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3824138430388441</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3237931726682494</v>
+        <v>0.3272445182891063</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4444340481615279</v>
+        <v>0.445528229342917</v>
       </c>
     </row>
     <row r="23">
@@ -8022,19 +8022,19 @@
         <v>84768</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74679</v>
+        <v>73934</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>94320</v>
+        <v>95279</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.577617050502397</v>
+        <v>0.5776170505023969</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.508870402546914</v>
+        <v>0.5037926644540157</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.642705539130719</v>
+        <v>0.6492371607774655</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>37</v>
@@ -8043,19 +8043,19 @@
         <v>21077</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17525</v>
+        <v>17889</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23113</v>
+        <v>23159</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8557275779420275</v>
+        <v>0.8557275779420276</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7114906997540615</v>
+        <v>0.7262599940493083</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9383645875251448</v>
+        <v>0.9402497857194613</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>158</v>
@@ -8064,19 +8064,19 @@
         <v>105846</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>95216</v>
+        <v>95029</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>115892</v>
+        <v>115301</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6175861569611558</v>
+        <v>0.6175861569611559</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.555565951838472</v>
+        <v>0.5544717706570831</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6762068273317505</v>
+        <v>0.6727554817108937</v>
       </c>
     </row>
     <row r="24">
@@ -8168,19 +8168,19 @@
         <v>519004</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>482514</v>
+        <v>479179</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>557341</v>
+        <v>558199</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3356092271662746</v>
+        <v>0.3356092271662747</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3120132240333217</v>
+        <v>0.3098566459576633</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3603994396211931</v>
+        <v>0.3609538465845013</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>332</v>
@@ -8189,19 +8189,19 @@
         <v>247863</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>224768</v>
+        <v>224249</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>273608</v>
+        <v>273555</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2347374130770603</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2128662304518341</v>
+        <v>0.2123740501941535</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2591200163771606</v>
+        <v>0.259068970742954</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>877</v>
@@ -8210,19 +8210,19 @@
         <v>766867</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>718917</v>
+        <v>721418</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>811423</v>
+        <v>811942</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2946803706118233</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2762550639039515</v>
+        <v>0.2772159533026136</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3118017834981893</v>
+        <v>0.3120012516190254</v>
       </c>
     </row>
     <row r="26">
@@ -8239,19 +8239,19 @@
         <v>1027450</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>989113</v>
+        <v>988255</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1063940</v>
+        <v>1067275</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6643907728337253</v>
+        <v>0.6643907728337254</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6396005603788067</v>
+        <v>0.6390461534154986</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6879867759666783</v>
+        <v>0.6901433540423367</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1120</v>
@@ -8260,19 +8260,19 @@
         <v>808051</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>782306</v>
+        <v>782359</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>831146</v>
+        <v>831665</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7652625869229397</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7408799836228397</v>
+        <v>0.7409310292570461</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7871337695481658</v>
+        <v>0.7876259498058464</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2128</v>
@@ -8281,19 +8281,19 @@
         <v>1835501</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1790945</v>
+        <v>1790426</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1883451</v>
+        <v>1880950</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7053196293881768</v>
+        <v>0.7053196293881767</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6881982165018105</v>
+        <v>0.6879987483809746</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7237449360960484</v>
+        <v>0.7227840466973867</v>
       </c>
     </row>
     <row r="27">
